--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:52:17+00:00</t>
+    <t>2024-08-13T15:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:15:18+00:00</t>
+    <t>2024-08-13T15:46:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T15:46:10+00:00</t>
+    <t>2024-08-13T16:03:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T16:03:55+00:00</t>
+    <t>2024-08-14T14:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:01:00+00:00</t>
+    <t>2024-08-14T14:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:25:26+00:00</t>
+    <t>2024-08-14T14:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T14:41:25+00:00</t>
+    <t>2024-08-14T15:19:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:19:31+00:00</t>
+    <t>2024-08-14T15:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T15:47:42+00:00</t>
+    <t>2024-08-14T16:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:13:05+00:00</t>
+    <t>2024-08-14T16:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/CorrectLink/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-14T16:30:57+00:00</t>
+    <t>2024-09-03T11:41:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1333,7 +1333,7 @@
         <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>85</v>
@@ -1444,7 +1444,7 @@
         <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>85</v>
@@ -1650,7 +1650,7 @@
         <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>85</v>
@@ -1862,7 +1862,7 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>126</v>
@@ -1973,7 +1973,7 @@
         <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>85</v>
@@ -2179,7 +2179,7 @@
         <v>83</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>85</v>
@@ -2288,7 +2288,7 @@
         <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>85</v>
@@ -2494,7 +2494,7 @@
         <v>83</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>85</v>
@@ -2702,7 +2702,7 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>126</v>
@@ -2811,7 +2811,7 @@
         <v>83</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>85</v>
@@ -3017,7 +3017,7 @@
         <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>85</v>
@@ -3229,7 +3229,7 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>126</v>
@@ -3437,7 +3437,7 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>126</v>
@@ -3645,7 +3645,7 @@
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>126</v>
